--- a/Question/Languages/Java/Java _B.xlsx
+++ b/Question/Languages/Java/Java _B.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\Java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189D27C6-957D-482C-B9B0-41D256CCA4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>JDK</t>
+  </si>
+  <si>
+    <t> James Gosling</t>
+  </si>
+  <si>
+    <t> java</t>
+  </si>
+  <si>
+    <t>In Java Which component is used to compile, debug and execute the java programs?</t>
+  </si>
+  <si>
+    <t>Who invented Java Programming?</t>
+  </si>
+  <si>
+    <t>In Java What is the extension of java code files?</t>
+  </si>
+  <si>
+    <t>can we use "brake" as a selection statements in Java?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>can we use "If" as a selection statements in Java?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +377,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="86.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Question/Languages/Java/Java _B.xlsx
+++ b/Question/Languages/Java/Java _B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189D27C6-957D-482C-B9B0-41D256CCA4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C66A716-7048-4DDA-9F70-C78C251B737B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,30 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Q</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>JDK</t>
-  </si>
-  <si>
-    <t> James Gosling</t>
-  </si>
-  <si>
-    <t> java</t>
-  </si>
-  <si>
-    <t>In Java Which component is used to compile, debug and execute the java programs?</t>
-  </si>
-  <si>
-    <t>Who invented Java Programming?</t>
-  </si>
-  <si>
-    <t>In Java What is the extension of java code files?</t>
   </si>
   <si>
     <t>can we use "brake" as a selection statements in Java?</t>
@@ -381,7 +363,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,44 +380,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
